--- a/HADoc/快樂聯盟資訊系統資料庫20230925.xlsx
+++ b/HADoc/快樂聯盟資訊系統資料庫20230925.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HAproject\HADoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C352E-6E9D-437A-88D2-DF75D73A03D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805207F4-AC7E-4705-B6E7-B09C7A78FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA969A31-4A33-48A4-85D4-FB2F49698498}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA969A31-4A33-48A4-85D4-FB2F49698498}"/>
   </bookViews>
   <sheets>
     <sheet name="會議記錄未上傳提醒(Record_warn)" sheetId="1" r:id="rId1"/>
     <sheet name="團督記錄(supervisor_record_v2)" sheetId="2" r:id="rId2"/>
+    <sheet name="在職訓練(training)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +277,134 @@
   </si>
   <si>
     <t>Record_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否第一次建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在職訓練地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程結束時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程開始時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履歷表檔案編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630FC429-0086-4CC8-8D02-8036162C22BA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -841,7 +970,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1079,4 +1208,270 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A44DDD6-381B-4F79-9F4C-816C4E340398}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HADoc/快樂聯盟資訊系統資料庫20230925.xlsx
+++ b/HADoc/快樂聯盟資訊系統資料庫20230925.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HAproject\HADoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805207F4-AC7E-4705-B6E7-B09C7A78FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E18E2-5E2E-4B40-8BF6-79C254E3A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA969A31-4A33-48A4-85D4-FB2F49698498}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CA969A31-4A33-48A4-85D4-FB2F49698498}"/>
   </bookViews>
   <sheets>
     <sheet name="會議記錄未上傳提醒(Record_warn)" sheetId="1" r:id="rId1"/>
     <sheet name="團督記錄(supervisor_record_v2)" sheetId="2" r:id="rId2"/>
     <sheet name="在職訓練(training)" sheetId="3" r:id="rId3"/>
+    <sheet name="車輛保留(vehicle_retain)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +406,58 @@
   </si>
   <si>
     <t>檔案名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out_timestap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back_timestap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回來時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出登記者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borrow_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A44DDD6-381B-4F79-9F4C-816C4E340398}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1474,4 +1527,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A909CFA-FB2F-4FF0-8501-DDD40DA2B7FB}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>